--- a/HillShadeCalcs1.xlsx
+++ b/HillShadeCalcs1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10644"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,6 +85,2164 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Depth Vs GoodShade</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GoodShade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2758</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2973</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3684</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="344064520"/>
+        <c:axId val="344058248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="344064520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344058248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="344058248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Shade</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344064520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AcrossTrack Vs </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GoodShade</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GoodShade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>38.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8461</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7947</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3789</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8084</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="404076872"/>
+        <c:axId val="404076480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="404076872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404076480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404076480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404076872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,15 +2508,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,7 +2527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5.58</v>
       </c>
@@ -380,29 +2538,118 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>291</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>210</v>
+      </c>
+      <c r="C4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>91</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>236</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>844</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1728</v>
+      </c>
+      <c r="B8">
+        <v>8461</v>
+      </c>
+      <c r="C8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2767</v>
+      </c>
+      <c r="B9">
+        <v>7947</v>
+      </c>
+      <c r="C9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2758</v>
+      </c>
+      <c r="B10">
+        <v>3789</v>
+      </c>
+      <c r="C10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2973</v>
+      </c>
+      <c r="B11">
+        <v>8084</v>
+      </c>
+      <c r="C11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>3684</v>
       </c>
-      <c r="B6">
+      <c r="B12">
         <v>13342</v>
       </c>
-      <c r="C6">
+      <c r="C12">
         <v>0.01</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/HillShadeCalcs1.xlsx
+++ b/HillShadeCalcs1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10656"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Depth</t>
   </si>
@@ -33,6 +33,30 @@
   </si>
   <si>
     <t>GoodShade</t>
+  </si>
+  <si>
+    <t>SwathWidth</t>
+  </si>
+  <si>
+    <t>distanceTravelled</t>
+  </si>
+  <si>
+    <t>beams</t>
+  </si>
+  <si>
+    <t>myxres</t>
+  </si>
+  <si>
+    <t>Mean xRes</t>
+  </si>
+  <si>
+    <t>npings</t>
+  </si>
+  <si>
+    <t>myyres</t>
+  </si>
+  <si>
+    <t>Mean yRes</t>
   </si>
 </sst>
 </file>
@@ -352,11 +376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="344064520"/>
-        <c:axId val="344058248"/>
+        <c:axId val="245576600"/>
+        <c:axId val="245578560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="344064520"/>
+        <c:axId val="245576600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -469,12 +493,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344058248"/>
+        <c:crossAx val="245578560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="344058248"/>
+        <c:axId val="245578560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -587,7 +611,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344064520"/>
+        <c:crossAx val="245576600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -896,11 +920,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404076872"/>
-        <c:axId val="404076480"/>
+        <c:axId val="245573072"/>
+        <c:axId val="245579344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404076872"/>
+        <c:axId val="245573072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,12 +981,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404076480"/>
+        <c:crossAx val="245579344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404076480"/>
+        <c:axId val="245579344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,7 +1043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404076872"/>
+        <c:crossAx val="245573072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2508,15 +2532,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2527,7 +2554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5.58</v>
       </c>
@@ -2538,7 +2565,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>32</v>
       </c>
@@ -2549,7 +2576,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>35</v>
       </c>
@@ -2560,7 +2587,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>37</v>
       </c>
@@ -2571,7 +2598,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>91</v>
       </c>
@@ -2582,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>236</v>
       </c>
@@ -2593,7 +2620,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1728</v>
       </c>
@@ -2604,7 +2631,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2767</v>
       </c>
@@ -2615,7 +2642,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2758</v>
       </c>
@@ -2626,7 +2653,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2973</v>
       </c>
@@ -2637,7 +2664,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3684</v>
       </c>
@@ -2646,6 +2673,72 @@
       </c>
       <c r="C12">
         <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>58.11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <f>B23/B24</f>
+        <v>0.14527499999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>257.43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <f>B29/B30</f>
+        <v>0.21049059689288635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
